--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaSpDvToiDa.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaSpDvToiDa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741233A6-3D23-45EF-938A-401A1C0DFB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2616AA6-8A06-412C-AF9B-15BB5CE66A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Phân loại</t>
-  </si>
-  <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>m2</t>
   </si>
   <si>
-    <t>Nhà tường 110</t>
+    <t>Phân loại loại sản phẩm dich vụ</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm dịch vụ</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Giá tối đa</t>
+  </si>
+  <si>
+    <t>Sản phẩm 01</t>
+  </si>
+  <si>
+    <t>Phân loại 01</t>
   </si>
 </sst>
 </file>
@@ -76,8 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,41 +401,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>5000</v>
       </c>
     </row>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaSpDvToiDa.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaSpDvToiDa.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\ASP\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF49E88-72F5-4D38-8F46-CA0C91336FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B7BF2E-40F0-49A5-8E54-BF3FAEAFF6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -62,14 +62,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -110,12 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -125,11 +124,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,56 +444,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D3:D1048576" xr:uid="{78A0A324-C344-4AA6-B01C-F6B5A0F20061}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>